--- a/provide/Output/OutputDataProvide.xlsx
+++ b/provide/Output/OutputDataProvide.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -41,7 +41,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 A - Agency
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="78">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -74,171 +74,227 @@
     <t>Delivery Address</t>
   </si>
   <si>
-    <t>Agency</t>
+    <t>PR tYPE</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Payment Terms</t>
+  </si>
+  <si>
+    <t>Requestor</t>
+  </si>
+  <si>
+    <t>Invoicing Address</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>RealEstateReference</t>
+  </si>
+  <si>
+    <t>Agency/Site</t>
+  </si>
+  <si>
+    <t>Provide2018</t>
   </si>
   <si>
     <t>Approver1</t>
   </si>
   <si>
+    <t>https://voflusoprasttest.p2p.basware.com</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>Product1</t>
+  </si>
+  <si>
     <t>Approver2</t>
   </si>
   <si>
+    <t>EMEAAD\anchaudhary</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Reviewer3</t>
+  </si>
+  <si>
+    <t>Reviewer2</t>
+  </si>
+  <si>
+    <t>Reviewer1</t>
+  </si>
+  <si>
+    <t>PRForm</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>EMEAAD\proch</t>
+  </si>
+  <si>
     <t>Approver3</t>
   </si>
   <si>
-    <t>PR tYPE</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Payment Terms</t>
-  </si>
-  <si>
-    <t>Requestor</t>
-  </si>
-  <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>Provide2018</t>
-  </si>
-  <si>
-    <t>Invoicing Address</t>
-  </si>
-  <si>
-    <t>EMEAAD\anchaudhary</t>
-  </si>
-  <si>
-    <t>S00006372002</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>0360</t>
-  </si>
-  <si>
-    <t>SSP</t>
-  </si>
-  <si>
-    <t>Aix Olympe</t>
-  </si>
-  <si>
-    <t>Galitt</t>
-  </si>
-  <si>
-    <t>Formation collaborateurs</t>
-  </si>
-  <si>
-    <t>Guarding and security Event</t>
-  </si>
-  <si>
-    <t>CS-FVAR</t>
-  </si>
-  <si>
-    <t>EMEAAD\acolibeau</t>
-  </si>
-  <si>
-    <t>EMEAAD\gdemoura</t>
-  </si>
-  <si>
-    <t>030560Z0009</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>EMEAAD\namichel</t>
-  </si>
-  <si>
-    <t>0361</t>
-  </si>
-  <si>
-    <t>019719A0018</t>
-  </si>
-  <si>
-    <t>Meal tickets expenses</t>
-  </si>
-  <si>
-    <t>GalFor3600</t>
-  </si>
-  <si>
-    <t>GalMkt3600</t>
-  </si>
-  <si>
-    <t>CP-NFRA</t>
-  </si>
-  <si>
-    <t>Prd3</t>
-  </si>
-  <si>
-    <t>Prd5</t>
-  </si>
-  <si>
-    <t>PRForm</t>
-  </si>
-  <si>
-    <t>Std</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>EMEAAD\lmnegre</t>
+  </si>
+  <si>
+    <t>EMEAAD\jcourault</t>
+  </si>
+  <si>
+    <t>SUBCONTRACTING</t>
+  </si>
+  <si>
+    <t>Contractors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Logistic</t>
+  </si>
+  <si>
+    <t>CP-APEX</t>
+  </si>
+  <si>
+    <t>Catering for Seminar and Events</t>
+  </si>
+  <si>
+    <t>OFFICE RENTS</t>
+  </si>
+  <si>
+    <t>PRSTD_119_4993_3000/1</t>
+  </si>
+  <si>
+    <t>PRHR_119_4993_3000/1</t>
+  </si>
+  <si>
+    <t>PRLOG_119_4993_3000/1</t>
+  </si>
+  <si>
+    <t>EMEAAD\spineau</t>
+  </si>
+  <si>
+    <t>EMEAAD\msinno</t>
+  </si>
+  <si>
+    <t>EMEAAD\pfournierbidoz</t>
+  </si>
+  <si>
+    <t>S00011626001</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>PRSTD_119_4993_30000/2</t>
+  </si>
+  <si>
+    <t>PRSTD_119_4993_900000/3</t>
+  </si>
+  <si>
+    <t>PRHR_119_4993_30000/2</t>
+  </si>
+  <si>
+    <t>PRHR_119_4993_900000/3</t>
+  </si>
+  <si>
+    <t>PRLOG_119_4993_30000/2</t>
+  </si>
+  <si>
+    <t>PRLOG_119_4993_900000/3</t>
+  </si>
+  <si>
+    <t>PRSUB_119_4993_30000/1</t>
+  </si>
+  <si>
+    <t>PRSUB_119_4993_3000000/2</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>TestCaseNo</t>
-  </si>
-  <si>
-    <t>137024</t>
-  </si>
-  <si>
-    <t>137025</t>
-  </si>
-  <si>
-    <t>https://voflusoprasttest.p2p.basware.com/edge</t>
-  </si>
-  <si>
-    <t>Test Status</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>LOGISTICS</t>
+  </si>
+  <si>
+    <t>Aix  Golf</t>
+  </si>
+  <si>
+    <t>4993</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,14 +314,26 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -275,34 +343,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -315,16 +383,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -333,21 +401,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -629,274 +710,1197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="11.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="44.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="32.28515625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="32.28515625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="27.7109375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.7109375" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="25.7109375" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="23.5703125" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="18" max="19" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="7.42578125" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.42578125" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="14.7109375" collapsed="false"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="25.140625" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="16.85546875" collapsed="false"/>
-    <col min="26" max="16384" style="2" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5703125" customWidth="1"/>
+    <col min="18" max="18" width="26" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" customWidth="1"/>
+    <col min="22" max="23" width="15.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="19.7109375" customWidth="1"/>
+    <col min="29" max="29" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="O4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="5" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="AE5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="K6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="P11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="7" t="s">
+      <c r="V11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="AA2" t="s" s="12">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="K12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="U12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="AA3" t="s" s="13">
-        <v>58</v>
+      <c r="AE12" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/provide/Output/OutputDataProvide.xlsx
+++ b/provide/Output/OutputDataProvide.xlsx
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/provide/Output/OutputDataProvide.xlsx
+++ b/provide/Output/OutputDataProvide.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -225,12 +225,22 @@
   </si>
   <si>
     <t>99</t>
+  </si>
+  <si>
+    <t>Test Status</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,12 +289,32 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -315,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -332,6 +362,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -613,40 +645,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" customWidth="1"/>
-    <col min="18" max="18" width="26" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" customWidth="1"/>
-    <col min="22" max="23" width="15.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="19.7109375" customWidth="1"/>
-    <col min="29" max="29" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.28515625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="32.28515625" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.7109375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="29.85546875" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="40.7109375" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.7109375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="17.140625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="22.5703125" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="23.5703125" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="26.0" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="21.85546875" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="7.42578125" collapsed="false"/>
+    <col min="22" max="23" customWidth="true" style="1" width="15.85546875" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.0" collapsed="false"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="26" max="28" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.140625" collapsed="false"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="16.85546875" collapsed="false"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="17.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,6 +775,9 @@
       <c r="AE1" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="AG1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -838,6 +873,9 @@
       <c r="AE2" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="AG2" t="s" s="12">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -932,6 +970,9 @@
       </c>
       <c r="AE3" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="AG3" t="s" s="13">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
